--- a/RapZapSnap/Assets/Chew/script/Excel Related/LyricsData.xlsx
+++ b/RapZapSnap/Assets/Chew/script/Excel Related/LyricsData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\rap.zap.snap\RapZapSnap\Assets\Chew\script\Excel Related\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16536" yWindow="-192" windowWidth="6312" windowHeight="9840" tabRatio="611" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="16530" yWindow="-195" windowWidth="6315" windowHeight="9840" tabRatio="611" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="tokiwa1" sheetId="1" r:id="rId1"/>
@@ -13,13 +18,16 @@
     <sheet name="hajime1" sheetId="4" r:id="rId4"/>
     <sheet name="hajime2" sheetId="5" r:id="rId5"/>
     <sheet name="hajime3" sheetId="6" r:id="rId6"/>
+    <sheet name="mari1" sheetId="7" r:id="rId7"/>
+    <sheet name="mari2" sheetId="8" r:id="rId8"/>
+    <sheet name="mari3" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="3">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -36,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -82,7 +90,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -90,12 +98,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -137,7 +148,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -172,7 +183,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,12 +398,12 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="9.69921875" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -411,7 +422,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -419,7 +430,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -427,7 +438,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -435,7 +446,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -446,7 +457,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -455,7 +466,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -464,7 +475,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -476,7 +487,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -485,7 +496,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -494,7 +505,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -503,7 +514,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -512,7 +523,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -521,7 +532,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -530,7 +541,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -539,7 +550,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -548,7 +559,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -560,7 +571,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -568,7 +579,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -576,7 +587,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -584,7 +595,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -592,7 +603,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -603,7 +614,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -612,7 +623,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -621,7 +632,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -633,7 +644,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -644,7 +655,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -652,7 +663,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -660,7 +671,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -668,7 +679,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -676,7 +687,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -684,7 +695,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -692,7 +703,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -700,7 +711,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -711,7 +722,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -720,7 +731,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -729,7 +740,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -738,7 +749,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -750,7 +761,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -758,7 +769,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -766,7 +777,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -774,7 +785,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -782,7 +793,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -790,7 +801,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -798,7 +809,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -806,7 +817,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -817,7 +828,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -826,7 +837,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -835,7 +846,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -847,7 +858,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -855,7 +866,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -863,7 +874,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -871,7 +882,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -879,7 +890,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -887,7 +898,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -895,7 +906,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -903,7 +914,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -911,7 +922,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -919,7 +930,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
@@ -927,7 +938,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -938,7 +949,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -947,7 +958,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -956,7 +967,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -965,7 +976,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -974,7 +985,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -986,7 +997,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -994,7 +1005,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1002,7 +1013,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1010,7 +1021,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1018,7 +1029,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1026,7 +1037,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1034,7 +1045,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1042,7 +1053,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1050,7 +1061,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1058,7 +1069,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1069,7 +1080,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1077,7 +1088,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1085,7 +1096,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1096,7 +1107,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1104,7 +1115,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1112,7 +1123,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1120,7 +1131,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1128,7 +1139,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1136,7 +1147,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1144,7 +1155,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1152,7 +1163,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1160,7 +1171,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1168,7 +1179,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1179,7 +1190,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1188,7 +1199,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1197,7 +1208,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1220,9 +1231,9 @@
       <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1233,7 +1244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1241,7 +1252,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1249,7 +1260,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1257,7 +1268,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1265,7 +1276,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1276,7 +1287,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1284,7 +1295,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1292,7 +1303,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1303,7 +1314,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1312,7 +1323,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1321,7 +1332,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1330,7 +1341,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1339,7 +1350,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1348,7 +1359,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1357,7 +1368,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1366,7 +1377,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1375,7 +1386,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1384,7 +1395,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1393,7 +1404,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1402,7 +1413,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1411,7 +1422,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1423,7 +1434,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1432,7 +1443,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1441,7 +1452,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1453,7 +1464,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1462,7 +1473,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1471,7 +1482,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1480,7 +1491,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1489,7 +1500,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1498,7 +1509,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1507,7 +1518,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1516,7 +1527,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1528,7 +1539,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1536,7 +1547,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1547,7 +1558,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1556,7 +1567,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1565,7 +1576,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1574,7 +1585,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1583,7 +1594,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1592,7 +1603,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1601,7 +1612,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1610,7 +1621,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1619,7 +1630,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1628,7 +1639,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1637,7 +1648,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1649,7 +1660,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1657,7 +1668,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1668,7 +1679,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1676,7 +1687,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1684,7 +1695,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1692,7 +1703,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1700,7 +1711,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1708,7 +1719,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1716,7 +1727,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1724,7 +1735,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1735,7 +1746,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1744,7 +1755,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1753,7 +1764,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1762,7 +1773,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1774,7 +1785,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1782,7 +1793,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1790,7 +1801,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1798,7 +1809,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1806,7 +1817,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1814,7 +1825,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1822,7 +1833,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1830,7 +1841,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1838,7 +1849,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1846,7 +1857,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1857,7 +1868,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1866,7 +1877,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1875,7 +1886,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1884,7 +1895,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1896,7 +1907,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1905,7 +1916,7 @@
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1914,7 +1925,7 @@
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1923,7 +1934,7 @@
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1932,7 +1943,7 @@
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1941,7 +1952,7 @@
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1950,7 +1961,7 @@
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1959,7 +1970,7 @@
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1968,7 +1979,7 @@
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1977,7 +1988,7 @@
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1986,7 +1997,7 @@
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1995,7 +2006,7 @@
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2004,7 +2015,7 @@
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2013,7 +2024,7 @@
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2022,7 +2033,7 @@
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2031,7 +2042,7 @@
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2040,7 +2051,7 @@
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2052,7 +2063,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2060,7 +2071,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2071,7 +2082,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2080,7 +2091,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2089,7 +2100,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2098,7 +2109,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2107,7 +2118,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2116,7 +2127,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2125,7 +2136,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2134,7 +2145,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2143,7 +2154,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2152,7 +2163,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2161,7 +2172,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2170,7 +2181,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2179,7 +2190,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2191,7 +2202,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2200,7 +2211,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2209,7 +2220,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2218,7 +2229,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2227,7 +2238,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2236,7 +2247,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2259,12 +2270,12 @@
       <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="9.69921875" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2275,7 +2286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2284,7 +2295,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2293,7 +2304,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2302,7 +2313,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2311,7 +2322,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2320,7 +2331,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2329,7 +2340,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2338,7 +2349,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2347,7 +2358,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2356,7 +2367,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2365,7 +2376,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2374,7 +2385,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2383,7 +2394,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2395,7 +2406,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2404,7 +2415,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2413,7 +2424,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2425,7 +2436,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2434,7 +2445,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2443,7 +2454,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2452,7 +2463,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2461,7 +2472,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2470,7 +2481,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2479,7 +2490,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2488,7 +2499,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2500,7 +2511,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2508,7 +2519,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2519,7 +2530,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2527,7 +2538,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2535,7 +2546,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2543,7 +2554,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2551,7 +2562,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2559,7 +2570,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2567,7 +2578,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2575,7 +2586,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2583,7 +2594,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2591,7 +2602,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2602,7 +2613,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2610,7 +2621,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2621,7 +2632,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2630,7 +2641,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2639,7 +2650,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2648,7 +2659,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2657,7 +2668,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2666,7 +2677,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2675,7 +2686,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2684,7 +2695,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2693,7 +2704,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2705,7 +2716,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2714,7 +2725,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2723,7 +2734,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2735,7 +2746,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2743,7 +2754,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2751,7 +2762,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2759,7 +2770,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2767,7 +2778,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2775,7 +2786,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2783,7 +2794,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2791,7 +2802,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2802,7 +2813,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2810,7 +2821,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2821,7 +2832,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2829,7 +2840,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2837,7 +2848,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2845,7 +2856,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2853,7 +2864,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2861,7 +2872,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2869,7 +2880,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2877,7 +2888,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2885,7 +2896,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2893,7 +2904,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2904,7 +2915,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2912,7 +2923,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2923,7 +2934,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2932,7 +2943,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2941,7 +2952,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2950,7 +2961,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2959,7 +2970,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2968,7 +2979,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2977,7 +2988,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2986,7 +2997,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2995,7 +3006,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3004,7 +3015,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3013,7 +3024,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3022,7 +3033,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3031,7 +3042,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3043,7 +3054,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3051,7 +3062,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3059,7 +3070,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3067,7 +3078,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3075,7 +3086,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3083,7 +3094,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3091,7 +3102,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3099,7 +3110,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3107,7 +3118,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3115,7 +3126,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3123,7 +3134,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3134,7 +3145,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3142,7 +3153,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3153,6 +3164,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3164,12 +3176,12 @@
       <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="9.8984375" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3180,7 +3192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3189,7 +3201,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3198,7 +3210,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3207,7 +3219,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3216,7 +3228,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3225,7 +3237,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3234,7 +3246,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3243,7 +3255,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3252,7 +3264,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3264,7 +3276,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3272,7 +3284,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3283,7 +3295,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3291,7 +3303,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3299,7 +3311,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3307,7 +3319,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3315,7 +3327,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3323,7 +3335,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3331,7 +3343,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3339,7 +3351,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3347,7 +3359,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3355,7 +3367,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3366,7 +3378,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3374,7 +3386,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3385,7 +3397,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3393,7 +3405,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3401,7 +3413,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3409,7 +3421,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3417,7 +3429,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3428,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3436,7 +3448,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3447,7 +3459,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3456,7 +3468,7 @@
         <v>0.10909090909090909</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3465,7 +3477,7 @@
         <v>0.10909090909090909</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3474,7 +3486,7 @@
         <v>0.10909090909090909</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3483,7 +3495,7 @@
         <v>0.10909090909090909</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3492,7 +3504,7 @@
         <v>0.10909090909090909</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3501,7 +3513,7 @@
         <v>0.10909090909090909</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3510,7 +3522,7 @@
         <v>0.10909090909090909</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3519,7 +3531,7 @@
         <v>0.10909090909090909</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3528,7 +3540,7 @@
         <v>0.10909090909090909</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3537,7 +3549,7 @@
         <v>0.10909090909090909</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3549,7 +3561,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3557,7 +3569,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3568,7 +3580,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3576,7 +3588,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3584,7 +3596,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3592,7 +3604,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3600,7 +3612,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3608,7 +3620,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3616,7 +3628,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3624,7 +3636,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3632,7 +3644,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3640,7 +3652,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3651,7 +3663,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3659,7 +3671,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3670,7 +3682,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3679,7 +3691,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3688,7 +3700,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3697,7 +3709,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3706,7 +3718,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3715,7 +3727,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3724,7 +3736,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3733,7 +3745,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3742,7 +3754,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3754,7 +3766,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3762,7 +3774,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3773,7 +3785,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3782,7 +3794,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3791,7 +3803,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3800,7 +3812,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3809,7 +3821,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3818,7 +3830,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3827,7 +3839,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3839,7 +3851,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3848,7 +3860,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3857,7 +3869,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3869,7 +3881,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3878,7 +3890,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3887,7 +3899,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3896,7 +3908,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3905,7 +3917,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3914,7 +3926,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3923,7 +3935,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3932,7 +3944,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3941,7 +3953,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3953,7 +3965,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3961,7 +3973,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3983,9 +3995,9 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3996,7 +4008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4005,7 +4017,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4014,7 +4026,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4023,7 +4035,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4032,7 +4044,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4041,7 +4053,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4050,7 +4062,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4062,7 +4074,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4071,7 +4083,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4080,7 +4092,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4092,7 +4104,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4101,7 +4113,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4110,7 +4122,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4122,7 +4134,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4131,7 +4143,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4140,7 +4152,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4149,7 +4161,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4161,7 +4173,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4170,7 +4182,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4178,7 +4190,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4186,7 +4198,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4194,7 +4206,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4205,7 +4217,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4214,7 +4226,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4223,7 +4235,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4235,7 +4247,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4243,7 +4255,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4251,7 +4263,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4259,7 +4271,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4267,7 +4279,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4275,7 +4287,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4283,7 +4295,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4291,7 +4303,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4299,7 +4311,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4307,7 +4319,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4318,7 +4330,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4327,7 +4339,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4336,7 +4348,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4348,7 +4360,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4357,7 +4369,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4366,7 +4378,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4375,7 +4387,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4384,7 +4396,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4393,7 +4405,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4402,7 +4414,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4411,7 +4423,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4420,7 +4432,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4432,7 +4444,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4443,7 +4455,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4452,7 +4464,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4461,7 +4473,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4470,7 +4482,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4479,7 +4491,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4488,7 +4500,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4497,7 +4509,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4506,7 +4518,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4518,7 +4530,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4526,7 +4538,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4537,7 +4549,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4546,7 +4558,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4555,7 +4567,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4564,7 +4576,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4573,7 +4585,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4582,7 +4594,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4591,7 +4603,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4600,7 +4612,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4612,7 +4624,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4620,7 +4632,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4631,7 +4643,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4640,7 +4652,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4649,7 +4661,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4658,7 +4670,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4667,7 +4679,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4676,7 +4688,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4685,7 +4697,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4694,7 +4706,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4703,7 +4715,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4712,7 +4724,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4721,7 +4733,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4733,7 +4745,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4741,7 +4753,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4759,13 +4771,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4776,7 +4788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4785,7 +4797,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4794,7 +4806,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4803,7 +4815,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4812,7 +4824,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4821,7 +4833,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4830,7 +4842,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4842,7 +4854,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4851,7 +4863,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4860,7 +4872,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4869,7 +4881,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4881,7 +4893,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4890,7 +4902,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4899,7 +4911,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4911,7 +4923,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4920,7 +4932,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4929,7 +4941,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4941,7 +4953,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4950,7 +4962,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4959,7 +4971,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4968,7 +4980,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4977,7 +4989,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4986,7 +4998,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4995,7 +5007,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5004,7 +5016,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5013,7 +5025,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5022,7 +5034,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5034,7 +5046,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5043,7 +5055,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5052,7 +5064,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5064,7 +5076,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5073,7 +5085,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5082,7 +5094,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5091,7 +5103,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5100,7 +5112,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5109,7 +5121,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5118,7 +5130,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5127,7 +5139,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5136,7 +5148,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5145,7 +5157,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5154,7 +5166,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5166,7 +5178,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5174,7 +5186,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5182,7 +5194,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5193,7 +5205,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5202,7 +5214,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5211,7 +5223,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5220,7 +5232,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5229,7 +5241,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5238,7 +5250,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5247,7 +5259,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5256,7 +5268,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5265,7 +5277,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5277,7 +5289,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5285,7 +5297,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5296,7 +5308,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5305,7 +5317,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5314,7 +5326,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5323,7 +5335,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5332,7 +5344,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5341,7 +5353,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5350,7 +5362,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5359,7 +5371,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5368,7 +5380,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5377,7 +5389,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5389,7 +5401,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5397,7 +5409,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5408,7 +5420,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5417,7 +5429,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5426,7 +5438,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5435,7 +5447,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5444,7 +5456,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5453,7 +5465,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5462,7 +5474,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5471,7 +5483,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5483,7 +5495,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5491,7 +5503,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5502,7 +5514,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5511,7 +5523,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5520,7 +5532,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5529,7 +5541,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5538,7 +5550,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5547,7 +5559,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5556,7 +5568,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5565,7 +5577,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5574,7 +5586,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5583,7 +5595,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5592,7 +5604,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5604,7 +5616,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5612,7 +5624,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5624,4 +5636,2535 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C96"/>
+  <sheetViews>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>0.5/6</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B7" si="0">0.5/6</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12:B17" si="1">1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="C17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f>0.5/3</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f>0.5/3</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f>0.5/3</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C20">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:B29" si="2">1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="2"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="2"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="2"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="2"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="2"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="2"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="2"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C29">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0.1</v>
+      </c>
+      <c r="C32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:B40" si="3">1/8</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="C40">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <f>0.5/3</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <f>0.5/3</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <f>0.5/3</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C43">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ref="B45:B51" si="4">1/8</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="C51">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>0.1</v>
+      </c>
+      <c r="C54">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <f>1/12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56:B66" si="5">1/12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C66">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <f>0.5/3</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <f>0.5/3</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <f>0.5/3</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C69">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <f>1.5/10</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ref="B71:B79" si="6">1.5/10</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="6"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="6"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="6"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="6"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="6"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="6"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="6"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="6"/>
+        <v>0.15</v>
+      </c>
+      <c r="C79">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <f>0.1/3</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <f>0.1/3</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <f>0.1/3</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="C82">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <f>1/12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ref="B84:B94" si="7">1/12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="7"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="7"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="7"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="7"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="7"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="7"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="7"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="7"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="7"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="7"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C94">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C89"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>1/10</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B10" si="0">1/10</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>1/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="C11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.15</v>
+      </c>
+      <c r="C13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:B21" si="1">1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f>0.5/3</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:B25" si="2">0.5/3</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:B34" si="3">1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="3"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="3"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="3"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="3"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="3"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="3"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0.05</v>
+      </c>
+      <c r="C36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38:B44" si="4">1/8</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="C44">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>0.25</v>
+      </c>
+      <c r="C46">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <f>0.5/6</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48:B52" si="5">0.5/6</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="5"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C52">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>0.25</v>
+      </c>
+      <c r="C54">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <f>0.5/6</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56:B60" si="6">0.5/6</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C60">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>0.1</v>
+      </c>
+      <c r="C65">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B72" si="7">1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="C72">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>0.15</v>
+      </c>
+      <c r="C74">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>0.1</v>
+      </c>
+      <c r="C84">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B9" si="0">1/8</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="C9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f>0.5/3</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>0.5/3</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f>0.5/3</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f>0.5/7</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14:B19" si="1">0.5/7</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.5</v>
+      </c>
+      <c r="C20">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:B30" si="2">1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="2"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="2"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="2"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="2"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="2"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="2"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="2"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C29">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0.25</v>
+      </c>
+      <c r="C31">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33:B39" si="3">1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="3"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="3"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="3"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="3"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="3"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="3"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C40">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <f>0.5/3</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <f>0.5/3</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <f>0.5/3</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C43">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ref="B45:B51" si="4">1/8</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="C51">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>0.25</v>
+      </c>
+      <c r="C53">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ref="B55:B61" si="5">1/8</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
+      <c r="C61">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>0.25</v>
+      </c>
+      <c r="C63">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>0.2</v>
+      </c>
+      <c r="C68">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>0.05</v>
+      </c>
+      <c r="C70">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>0.15</v>
+      </c>
+      <c r="C80">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/RapZapSnap/Assets/Chew/script/Excel Related/LyricsData.xlsx
+++ b/RapZapSnap/Assets/Chew/script/Excel Related/LyricsData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\rap.zap.snap\RapZapSnap\Assets\Chew\script\Excel Related\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16530" yWindow="-195" windowWidth="6315" windowHeight="9840" tabRatio="611" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="12120" yWindow="0" windowWidth="16680" windowHeight="12645" tabRatio="611" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="tokiwa1" sheetId="1" r:id="rId1"/>
@@ -22,12 +17,24 @@
     <sheet name="mari2" sheetId="8" r:id="rId8"/>
     <sheet name="mari3" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="6">
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delaytime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wholedelay</t>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -44,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -90,7 +97,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -106,7 +113,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -148,7 +155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,7 +190,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,8 +401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="C92" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -405,13 +412,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -492,8 +499,8 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <f>0.5/9</f>
-        <v>5.5555555555555552E-2</v>
+        <f>0.4/9</f>
+        <v>4.4444444444444446E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -501,8 +508,8 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" ref="B11:B18" si="0">0.5/9</f>
-        <v>5.5555555555555552E-2</v>
+        <f t="shared" ref="B11:B18" si="0">0.4/9</f>
+        <v>4.4444444444444446E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -511,7 +518,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>5.5555555555555552E-2</v>
+        <v>4.4444444444444446E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -520,7 +527,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>5.5555555555555552E-2</v>
+        <v>4.4444444444444446E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -529,7 +536,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>5.5555555555555552E-2</v>
+        <v>4.4444444444444446E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -538,7 +545,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>5.5555555555555552E-2</v>
+        <v>4.4444444444444446E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -547,7 +554,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>5.5555555555555552E-2</v>
+        <v>4.4444444444444446E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -556,7 +563,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>5.5555555555555552E-2</v>
+        <v>4.4444444444444446E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -565,10 +572,10 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>5.5555555555555552E-2</v>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="C18">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -576,7 +583,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -584,7 +591,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -592,7 +599,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -600,7 +607,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -608,7 +615,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="C23">
         <v>0.1</v>
@@ -649,7 +656,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C27">
         <v>0.1</v>
@@ -660,7 +667,8 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.1</v>
+        <f>0.2/9</f>
+        <v>2.2222222222222223E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -668,7 +676,8 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.1</v>
+        <f t="shared" ref="B29:B35" si="2">0.8/9</f>
+        <v>8.8888888888888892E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -676,7 +685,8 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>8.8888888888888892E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -684,7 +694,8 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>8.8888888888888892E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -692,7 +703,8 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>8.8888888888888892E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -700,7 +712,8 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>8.8888888888888892E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -708,7 +721,8 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>8.8888888888888892E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -716,7 +730,8 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="C35">
         <v>0.2</v>
@@ -766,7 +781,8 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.1</v>
+        <f>0.1/7</f>
+        <v>1.4285714285714287E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -774,7 +790,8 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.1</v>
+        <f t="shared" ref="B41:B47" si="3">0.1/7</f>
+        <v>1.4285714285714287E-2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -782,7 +799,8 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>1.4285714285714287E-2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -790,7 +808,8 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>1.4285714285714287E-2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -798,7 +817,8 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>1.4285714285714287E-2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -806,7 +826,8 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>1.4285714285714287E-2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -814,7 +835,8 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>1.4285714285714287E-2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -822,7 +844,8 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>1.4285714285714287E-2</v>
       </c>
       <c r="C47">
         <v>0.2</v>
@@ -842,7 +865,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <f t="shared" ref="B49:B50" si="2">0.5/3</f>
+        <f t="shared" ref="B49:B50" si="4">0.5/3</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
@@ -851,7 +874,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="C50">
@@ -863,7 +886,8 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.04</v>
+        <f>0.3/10</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -871,7 +895,8 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.04</v>
+        <f t="shared" ref="B52:B61" si="5">0.3/10</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -879,7 +904,8 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.04</v>
+        <f t="shared" si="5"/>
+        <v>0.03</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -887,7 +913,8 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.04</v>
+        <f t="shared" si="5"/>
+        <v>0.03</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -895,7 +922,8 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.04</v>
+        <f t="shared" si="5"/>
+        <v>0.03</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -903,7 +931,8 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.04</v>
+        <f t="shared" si="5"/>
+        <v>0.03</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -911,7 +940,8 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.04</v>
+        <f t="shared" si="5"/>
+        <v>0.03</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -919,7 +949,8 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.04</v>
+        <f t="shared" si="5"/>
+        <v>0.03</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -927,7 +958,8 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.04</v>
+        <f t="shared" si="5"/>
+        <v>0.03</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -935,7 +967,8 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.04</v>
+        <f t="shared" si="5"/>
+        <v>0.03</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -943,7 +976,8 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.04</v>
+        <f t="shared" si="5"/>
+        <v>0.03</v>
       </c>
       <c r="C61">
         <v>1.1000000000000001</v>
@@ -954,8 +988,8 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <f>0.4/5</f>
-        <v>0.08</v>
+        <f>0.3/5</f>
+        <v>0.06</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -963,8 +997,8 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <f t="shared" ref="B63:B66" si="3">0.4/5</f>
-        <v>0.08</v>
+        <f t="shared" ref="B63:B66" si="6">0.3/5</f>
+        <v>0.06</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -972,8 +1006,8 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <f t="shared" si="3"/>
-        <v>0.08</v>
+        <f t="shared" si="6"/>
+        <v>0.06</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -981,8 +1015,8 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <f t="shared" si="3"/>
-        <v>0.08</v>
+        <f t="shared" si="6"/>
+        <v>0.06</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -990,8 +1024,8 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <f t="shared" si="3"/>
-        <v>0.08</v>
+        <f t="shared" si="6"/>
+        <v>0.06</v>
       </c>
       <c r="C66">
         <v>0.1</v>
@@ -1002,7 +1036,8 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.1</v>
+        <f>0.1/9</f>
+        <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -1010,7 +1045,8 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.1</v>
+        <f>0.1/9</f>
+        <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -1018,7 +1054,8 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.1</v>
+        <f t="shared" ref="B69:B76" si="7">0.1/9</f>
+        <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -1026,7 +1063,8 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.1</v>
+        <f t="shared" si="7"/>
+        <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -1034,7 +1072,8 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.1</v>
+        <f t="shared" si="7"/>
+        <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -1042,7 +1081,8 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.1</v>
+        <f t="shared" si="7"/>
+        <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -1050,7 +1090,8 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.1</v>
+        <f t="shared" si="7"/>
+        <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -1058,7 +1099,8 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.1</v>
+        <f t="shared" si="7"/>
+        <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -1066,7 +1108,8 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.1</v>
+        <f t="shared" si="7"/>
+        <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -1074,7 +1117,8 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.1</v>
+        <f t="shared" si="7"/>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="C76">
         <v>0.5</v>
@@ -1112,7 +1156,8 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.1</v>
+        <f>0.1/2</f>
+        <v>0.05</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -1120,7 +1165,8 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.1</v>
+        <f t="shared" ref="B81:B89" si="8">0.1/2</f>
+        <v>0.05</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -1128,7 +1174,8 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.1</v>
+        <f t="shared" si="8"/>
+        <v>0.05</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -1136,7 +1183,8 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.1</v>
+        <f t="shared" si="8"/>
+        <v>0.05</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -1144,7 +1192,8 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.1</v>
+        <f t="shared" si="8"/>
+        <v>0.05</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -1152,7 +1201,8 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.1</v>
+        <f t="shared" si="8"/>
+        <v>0.05</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -1160,7 +1210,8 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.1</v>
+        <f t="shared" si="8"/>
+        <v>0.05</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -1168,7 +1219,8 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.1</v>
+        <f t="shared" si="8"/>
+        <v>0.05</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -1176,7 +1228,8 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.1</v>
+        <f t="shared" si="8"/>
+        <v>0.05</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -1184,7 +1237,8 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.1</v>
+        <f t="shared" si="8"/>
+        <v>0.05</v>
       </c>
       <c r="C89">
         <v>0.1</v>
@@ -1227,21 +1281,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1563,8 +1617,8 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <f>1/11</f>
-        <v>9.0909090909090912E-2</v>
+        <f>2/11</f>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -1572,8 +1626,8 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <f t="shared" ref="B37:B46" si="2">1/11</f>
-        <v>9.0909090909090912E-2</v>
+        <f t="shared" ref="B37:B46" si="2">2/11</f>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -1582,7 +1636,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -1591,7 +1645,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -1600,7 +1654,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -1609,7 +1663,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -1618,7 +1672,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -1627,7 +1681,7 @@
       </c>
       <c r="B43">
         <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -1636,7 +1690,7 @@
       </c>
       <c r="B44">
         <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -1645,7 +1699,7 @@
       </c>
       <c r="B45">
         <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -1654,7 +1708,7 @@
       </c>
       <c r="B46">
         <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="C46">
         <v>0.5</v>
@@ -1684,7 +1738,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -1692,7 +1746,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -1700,7 +1754,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -1708,7 +1762,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -1716,7 +1770,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -1724,7 +1778,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -1732,7 +1786,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -1740,7 +1794,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C56">
         <v>0.4</v>
@@ -1912,8 +1966,8 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <f>1.5/17</f>
-        <v>8.8235294117647065E-2</v>
+        <f>1.6/17</f>
+        <v>9.4117647058823528E-2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -1921,8 +1975,8 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <f t="shared" ref="B76:B91" si="3">1.5/17</f>
-        <v>8.8235294117647065E-2</v>
+        <f t="shared" ref="B76:B91" si="3">1.6/17</f>
+        <v>9.4117647058823528E-2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -1931,7 +1985,7 @@
       </c>
       <c r="B77">
         <f t="shared" si="3"/>
-        <v>8.8235294117647065E-2</v>
+        <v>9.4117647058823528E-2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -1940,7 +1994,7 @@
       </c>
       <c r="B78">
         <f t="shared" si="3"/>
-        <v>8.8235294117647065E-2</v>
+        <v>9.4117647058823528E-2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -1949,7 +2003,7 @@
       </c>
       <c r="B79">
         <f t="shared" si="3"/>
-        <v>8.8235294117647065E-2</v>
+        <v>9.4117647058823528E-2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -1958,7 +2012,7 @@
       </c>
       <c r="B80">
         <f t="shared" si="3"/>
-        <v>8.8235294117647065E-2</v>
+        <v>9.4117647058823528E-2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -1967,7 +2021,7 @@
       </c>
       <c r="B81">
         <f t="shared" si="3"/>
-        <v>8.8235294117647065E-2</v>
+        <v>9.4117647058823528E-2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -1976,7 +2030,7 @@
       </c>
       <c r="B82">
         <f t="shared" si="3"/>
-        <v>8.8235294117647065E-2</v>
+        <v>9.4117647058823528E-2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -1985,7 +2039,7 @@
       </c>
       <c r="B83">
         <f t="shared" si="3"/>
-        <v>8.8235294117647065E-2</v>
+        <v>9.4117647058823528E-2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -1994,7 +2048,7 @@
       </c>
       <c r="B84">
         <f t="shared" si="3"/>
-        <v>8.8235294117647065E-2</v>
+        <v>9.4117647058823528E-2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -2003,7 +2057,7 @@
       </c>
       <c r="B85">
         <f t="shared" si="3"/>
-        <v>8.8235294117647065E-2</v>
+        <v>9.4117647058823528E-2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -2012,7 +2066,7 @@
       </c>
       <c r="B86">
         <f t="shared" si="3"/>
-        <v>8.8235294117647065E-2</v>
+        <v>9.4117647058823528E-2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -2021,7 +2075,7 @@
       </c>
       <c r="B87">
         <f t="shared" si="3"/>
-        <v>8.8235294117647065E-2</v>
+        <v>9.4117647058823528E-2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -2030,7 +2084,7 @@
       </c>
       <c r="B88">
         <f t="shared" si="3"/>
-        <v>8.8235294117647065E-2</v>
+        <v>9.4117647058823528E-2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -2039,7 +2093,7 @@
       </c>
       <c r="B89">
         <f t="shared" si="3"/>
-        <v>8.8235294117647065E-2</v>
+        <v>9.4117647058823528E-2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -2048,7 +2102,7 @@
       </c>
       <c r="B90">
         <f t="shared" si="3"/>
-        <v>8.8235294117647065E-2</v>
+        <v>9.4117647058823528E-2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -2057,7 +2111,7 @@
       </c>
       <c r="B91">
         <f t="shared" si="3"/>
-        <v>8.8235294117647065E-2</v>
+        <v>9.4117647058823528E-2</v>
       </c>
       <c r="C91">
         <v>0.6</v>
@@ -2087,8 +2141,8 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <f>1/13</f>
-        <v>7.6923076923076927E-2</v>
+        <f>1.2/13</f>
+        <v>9.2307692307692299E-2</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
@@ -2096,8 +2150,8 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <f t="shared" ref="B95:B106" si="4">1/13</f>
-        <v>7.6923076923076927E-2</v>
+        <f t="shared" ref="B95:B106" si="4">1.2/13</f>
+        <v>9.2307692307692299E-2</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
@@ -2106,7 +2160,7 @@
       </c>
       <c r="B96">
         <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
+        <v>9.2307692307692299E-2</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
@@ -2115,7 +2169,7 @@
       </c>
       <c r="B97">
         <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
+        <v>9.2307692307692299E-2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
@@ -2124,7 +2178,7 @@
       </c>
       <c r="B98">
         <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
+        <v>9.2307692307692299E-2</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
@@ -2133,7 +2187,7 @@
       </c>
       <c r="B99">
         <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
+        <v>9.2307692307692299E-2</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
@@ -2142,7 +2196,7 @@
       </c>
       <c r="B100">
         <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
+        <v>9.2307692307692299E-2</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
@@ -2151,7 +2205,7 @@
       </c>
       <c r="B101">
         <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
+        <v>9.2307692307692299E-2</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
@@ -2160,7 +2214,7 @@
       </c>
       <c r="B102">
         <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
+        <v>9.2307692307692299E-2</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
@@ -2169,7 +2223,7 @@
       </c>
       <c r="B103">
         <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
+        <v>9.2307692307692299E-2</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
@@ -2178,7 +2232,7 @@
       </c>
       <c r="B104">
         <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
+        <v>9.2307692307692299E-2</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
@@ -2187,7 +2241,7 @@
       </c>
       <c r="B105">
         <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
+        <v>9.2307692307692299E-2</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
@@ -2196,7 +2250,7 @@
       </c>
       <c r="B106">
         <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
+        <v>9.2307692307692299E-2</v>
       </c>
       <c r="C106">
         <v>0.4</v>
@@ -2207,7 +2261,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <f t="shared" ref="B107:B112" si="5">1/6</f>
+        <f>1/6</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
@@ -2216,7 +2270,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="B108:B112" si="5">1/6</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
@@ -2267,7 +2321,7 @@
   <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+      <selection activeCell="B100" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2277,13 +2331,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -2441,8 +2495,8 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <f>1.3/7</f>
+        <v>0.18571428571428572</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -2450,8 +2504,8 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f t="shared" ref="B19:B25" si="1">1/7</f>
-        <v>0.14285714285714285</v>
+        <f t="shared" ref="B19:B25" si="1">1.3/7</f>
+        <v>0.18571428571428572</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -2460,7 +2514,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>0.18571428571428572</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -2469,7 +2523,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>0.18571428571428572</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -2478,7 +2532,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>0.18571428571428572</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -2487,7 +2541,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>0.18571428571428572</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -2496,7 +2550,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>0.18571428571428572</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -2505,7 +2559,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>0.18571428571428572</v>
       </c>
       <c r="C25">
         <v>0.3</v>
@@ -2516,7 +2570,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -2524,7 +2578,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="C27">
         <v>0.3</v>
@@ -2535,7 +2589,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -2543,7 +2597,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -2551,7 +2605,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -2559,7 +2613,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -2567,7 +2621,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -2575,7 +2629,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -2583,7 +2637,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -2591,7 +2645,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -2599,7 +2653,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -2607,7 +2661,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="C37">
         <v>0.3</v>
@@ -2618,7 +2672,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -2637,8 +2691,8 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <f>0.8/9</f>
-        <v>8.8888888888888892E-2</v>
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -2646,8 +2700,8 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <f t="shared" ref="B41:B48" si="2">0.8/9</f>
-        <v>8.8888888888888892E-2</v>
+        <f t="shared" ref="B41:B48" si="2">1/9</f>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -2656,7 +2710,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="2"/>
-        <v>8.8888888888888892E-2</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -2665,7 +2719,7 @@
       </c>
       <c r="B43">
         <f t="shared" si="2"/>
-        <v>8.8888888888888892E-2</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -2674,7 +2728,7 @@
       </c>
       <c r="B44">
         <f t="shared" si="2"/>
-        <v>8.8888888888888892E-2</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -2683,7 +2737,7 @@
       </c>
       <c r="B45">
         <f t="shared" si="2"/>
-        <v>8.8888888888888892E-2</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -2692,7 +2746,7 @@
       </c>
       <c r="B46">
         <f t="shared" si="2"/>
-        <v>8.8888888888888892E-2</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -2701,7 +2755,7 @@
       </c>
       <c r="B47">
         <f t="shared" si="2"/>
-        <v>8.8888888888888892E-2</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -2710,7 +2764,7 @@
       </c>
       <c r="B48">
         <f t="shared" si="2"/>
-        <v>8.8888888888888892E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C48">
         <v>0.4</v>
@@ -2751,7 +2805,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -2759,7 +2813,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -2767,7 +2821,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -2775,7 +2829,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -2783,7 +2837,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -2791,7 +2845,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -2799,7 +2853,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -2807,7 +2861,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="C59">
         <v>0.4</v>
@@ -2818,7 +2872,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -2826,7 +2880,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="C61">
         <v>0.3</v>
@@ -2837,7 +2891,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -2845,7 +2899,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -2853,7 +2907,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -2861,7 +2915,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -2869,7 +2923,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -2877,7 +2931,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -2885,7 +2939,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -2893,7 +2947,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -2901,7 +2955,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -2909,7 +2963,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="C71">
         <v>0.5</v>
@@ -2920,7 +2974,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -2928,7 +2982,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="C73">
         <v>0.2</v>
@@ -2939,8 +2993,8 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <f>1.5/13</f>
-        <v>0.11538461538461539</v>
+        <f>1.6/13</f>
+        <v>0.12307692307692308</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -2948,8 +3002,8 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <f t="shared" ref="B75:B86" si="3">1.5/13</f>
-        <v>0.11538461538461539</v>
+        <f t="shared" ref="B75:B86" si="3">1.6/13</f>
+        <v>0.12307692307692308</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -2958,7 +3012,7 @@
       </c>
       <c r="B76">
         <f t="shared" si="3"/>
-        <v>0.11538461538461539</v>
+        <v>0.12307692307692308</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -2967,7 +3021,7 @@
       </c>
       <c r="B77">
         <f t="shared" si="3"/>
-        <v>0.11538461538461539</v>
+        <v>0.12307692307692308</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -2976,7 +3030,7 @@
       </c>
       <c r="B78">
         <f t="shared" si="3"/>
-        <v>0.11538461538461539</v>
+        <v>0.12307692307692308</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -2985,7 +3039,7 @@
       </c>
       <c r="B79">
         <f t="shared" si="3"/>
-        <v>0.11538461538461539</v>
+        <v>0.12307692307692308</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -2994,7 +3048,7 @@
       </c>
       <c r="B80">
         <f t="shared" si="3"/>
-        <v>0.11538461538461539</v>
+        <v>0.12307692307692308</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -3003,7 +3057,7 @@
       </c>
       <c r="B81">
         <f t="shared" si="3"/>
-        <v>0.11538461538461539</v>
+        <v>0.12307692307692308</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -3012,7 +3066,7 @@
       </c>
       <c r="B82">
         <f t="shared" si="3"/>
-        <v>0.11538461538461539</v>
+        <v>0.12307692307692308</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -3021,7 +3075,7 @@
       </c>
       <c r="B83">
         <f t="shared" si="3"/>
-        <v>0.11538461538461539</v>
+        <v>0.12307692307692308</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -3030,7 +3084,7 @@
       </c>
       <c r="B84">
         <f t="shared" si="3"/>
-        <v>0.11538461538461539</v>
+        <v>0.12307692307692308</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -3039,7 +3093,7 @@
       </c>
       <c r="B85">
         <f t="shared" si="3"/>
-        <v>0.11538461538461539</v>
+        <v>0.12307692307692308</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -3048,7 +3102,7 @@
       </c>
       <c r="B86">
         <f t="shared" si="3"/>
-        <v>0.11538461538461539</v>
+        <v>0.12307692307692308</v>
       </c>
       <c r="C86">
         <v>0.5</v>
@@ -3059,7 +3113,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -3067,7 +3121,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -3075,7 +3129,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -3083,7 +3137,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -3091,7 +3145,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
@@ -3099,7 +3153,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
@@ -3107,7 +3161,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
@@ -3115,7 +3169,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
@@ -3123,7 +3177,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
@@ -3131,7 +3185,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
@@ -3139,7 +3193,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="C97">
         <v>0.3</v>
@@ -3150,7 +3204,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
@@ -3158,7 +3212,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -3172,8 +3226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3183,13 +3237,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -3402,7 +3456,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -3410,7 +3464,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -3418,7 +3472,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -3426,7 +3480,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -3434,7 +3488,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -3464,8 +3518,8 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <f>1.2/11</f>
-        <v>0.10909090909090909</v>
+        <f>0.8/11</f>
+        <v>7.2727272727272738E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -3473,8 +3527,8 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:B41" si="1">1.2/11</f>
-        <v>0.10909090909090909</v>
+        <f t="shared" ref="B33:B42" si="1">0.8/11</f>
+        <v>7.2727272727272738E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -3483,7 +3537,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>0.10909090909090909</v>
+        <v>7.2727272727272738E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -3492,7 +3546,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>0.10909090909090909</v>
+        <v>7.2727272727272738E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -3501,7 +3555,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>0.10909090909090909</v>
+        <v>7.2727272727272738E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -3510,7 +3564,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
-        <v>0.10909090909090909</v>
+        <v>7.2727272727272738E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -3519,7 +3573,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
-        <v>0.10909090909090909</v>
+        <v>7.2727272727272738E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -3528,7 +3582,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
-        <v>0.10909090909090909</v>
+        <v>7.2727272727272738E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -3537,7 +3591,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
-        <v>0.10909090909090909</v>
+        <v>7.2727272727272738E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -3546,7 +3600,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
-        <v>0.10909090909090909</v>
+        <v>7.2727272727272738E-2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -3554,8 +3608,8 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <f>1.2/11</f>
-        <v>0.10909090909090909</v>
+        <f t="shared" si="1"/>
+        <v>7.2727272727272738E-2</v>
       </c>
       <c r="C42">
         <v>0.2</v>
@@ -3566,7 +3620,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -3574,7 +3628,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="C44">
         <v>0.3</v>
@@ -3585,7 +3639,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -3593,7 +3647,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -3601,7 +3655,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -3609,7 +3663,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -3617,7 +3671,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -3625,7 +3679,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -3633,7 +3687,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -3641,7 +3695,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -3649,7 +3703,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -3657,7 +3711,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="C54">
         <v>0.4</v>
@@ -3687,8 +3741,8 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <f>1.5/9</f>
-        <v>0.16666666666666666</v>
+        <f>1.3/9</f>
+        <v>0.14444444444444446</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -3696,8 +3750,8 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <f t="shared" ref="B58:B65" si="2">1.5/9</f>
-        <v>0.16666666666666666</v>
+        <f t="shared" ref="B58:B65" si="2">1.3/9</f>
+        <v>0.14444444444444446</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -3706,7 +3760,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>0.14444444444444446</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -3715,7 +3769,7 @@
       </c>
       <c r="B60">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>0.14444444444444446</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -3724,7 +3778,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>0.14444444444444446</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -3733,7 +3787,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>0.14444444444444446</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -3742,7 +3796,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>0.14444444444444446</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -3751,7 +3805,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>0.14444444444444446</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -3760,7 +3814,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>0.14444444444444446</v>
       </c>
       <c r="C65">
         <v>0.1</v>
@@ -3790,8 +3844,8 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <f>0.8/7</f>
+        <v>0.1142857142857143</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -3799,8 +3853,8 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <f t="shared" ref="B69:B74" si="3">1/7</f>
-        <v>0.14285714285714285</v>
+        <f t="shared" ref="B69:B77" si="3">0.8/7</f>
+        <v>0.1142857142857143</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -3809,7 +3863,7 @@
       </c>
       <c r="B70">
         <f t="shared" si="3"/>
-        <v>0.14285714285714285</v>
+        <v>0.1142857142857143</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -3818,7 +3872,7 @@
       </c>
       <c r="B71">
         <f t="shared" si="3"/>
-        <v>0.14285714285714285</v>
+        <v>0.1142857142857143</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -3827,7 +3881,7 @@
       </c>
       <c r="B72">
         <f t="shared" si="3"/>
-        <v>0.14285714285714285</v>
+        <v>0.1142857142857143</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -3836,7 +3890,7 @@
       </c>
       <c r="B73">
         <f t="shared" si="3"/>
-        <v>0.14285714285714285</v>
+        <v>0.1142857142857143</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -3845,7 +3899,7 @@
       </c>
       <c r="B74">
         <f t="shared" si="3"/>
-        <v>0.14285714285714285</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="C74">
         <v>0.2</v>
@@ -3856,8 +3910,8 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <f>0.4/3</f>
-        <v>0.13333333333333333</v>
+        <f t="shared" si="3"/>
+        <v>0.1142857142857143</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -3865,8 +3919,8 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <f>0.4/3</f>
-        <v>0.13333333333333333</v>
+        <f t="shared" si="3"/>
+        <v>0.1142857142857143</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -3874,8 +3928,8 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <f>0.4/3</f>
-        <v>0.13333333333333333</v>
+        <f t="shared" si="3"/>
+        <v>0.1142857142857143</v>
       </c>
       <c r="C77">
         <v>0.2</v>
@@ -3886,8 +3940,8 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <f>1/9</f>
-        <v>0.1111111111111111</v>
+        <f>0.8/9</f>
+        <v>8.8888888888888892E-2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -3895,8 +3949,8 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <f t="shared" ref="B79:B86" si="4">1/9</f>
-        <v>0.1111111111111111</v>
+        <f t="shared" ref="B79:B86" si="4">0.8/9</f>
+        <v>8.8888888888888892E-2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -3905,7 +3959,7 @@
       </c>
       <c r="B80">
         <f t="shared" si="4"/>
-        <v>0.1111111111111111</v>
+        <v>8.8888888888888892E-2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -3914,7 +3968,7 @@
       </c>
       <c r="B81">
         <f t="shared" si="4"/>
-        <v>0.1111111111111111</v>
+        <v>8.8888888888888892E-2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -3923,7 +3977,7 @@
       </c>
       <c r="B82">
         <f t="shared" si="4"/>
-        <v>0.1111111111111111</v>
+        <v>8.8888888888888892E-2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -3932,7 +3986,7 @@
       </c>
       <c r="B83">
         <f t="shared" si="4"/>
-        <v>0.1111111111111111</v>
+        <v>8.8888888888888892E-2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -3941,7 +3995,7 @@
       </c>
       <c r="B84">
         <f t="shared" si="4"/>
-        <v>0.1111111111111111</v>
+        <v>8.8888888888888892E-2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -3950,7 +4004,7 @@
       </c>
       <c r="B85">
         <f t="shared" si="4"/>
-        <v>0.1111111111111111</v>
+        <v>8.8888888888888892E-2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -3959,7 +4013,7 @@
       </c>
       <c r="B86">
         <f t="shared" si="4"/>
-        <v>0.1111111111111111</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="C86">
         <v>0.3</v>
@@ -3970,7 +4024,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -3978,7 +4032,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -3991,21 +4045,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -4771,21 +4825,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -5081,8 +5135,8 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <f>1.5/11</f>
-        <v>0.13636363636363635</v>
+        <f>1.8/11</f>
+        <v>0.16363636363636364</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -5090,8 +5144,8 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:B42" si="3">1.5/11</f>
-        <v>0.13636363636363635</v>
+        <f t="shared" ref="B33:B42" si="3">1.8/11</f>
+        <v>0.16363636363636364</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -5100,7 +5154,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="3"/>
-        <v>0.13636363636363635</v>
+        <v>0.16363636363636364</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -5109,7 +5163,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="3"/>
-        <v>0.13636363636363635</v>
+        <v>0.16363636363636364</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -5118,7 +5172,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="3"/>
-        <v>0.13636363636363635</v>
+        <v>0.16363636363636364</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -5127,7 +5181,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="3"/>
-        <v>0.13636363636363635</v>
+        <v>0.16363636363636364</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -5136,7 +5190,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="3"/>
-        <v>0.13636363636363635</v>
+        <v>0.16363636363636364</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -5145,7 +5199,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="3"/>
-        <v>0.13636363636363635</v>
+        <v>0.16363636363636364</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -5154,7 +5208,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="3"/>
-        <v>0.13636363636363635</v>
+        <v>0.16363636363636364</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -5163,7 +5217,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="3"/>
-        <v>0.13636363636363635</v>
+        <v>0.16363636363636364</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -5172,7 +5226,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="3"/>
-        <v>0.13636363636363635</v>
+        <v>0.16363636363636364</v>
       </c>
       <c r="C42">
         <v>0.2</v>
@@ -5183,7 +5237,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -5191,7 +5245,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -5199,7 +5253,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C45">
         <v>0.3</v>
@@ -5210,8 +5264,8 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <f>1.5/9</f>
-        <v>0.16666666666666666</v>
+        <f>1.6/9</f>
+        <v>0.17777777777777778</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -5219,8 +5273,8 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <f t="shared" ref="B47:B54" si="4">1.5/9</f>
-        <v>0.16666666666666666</v>
+        <f t="shared" ref="B47:B54" si="4">1.6/9</f>
+        <v>0.17777777777777778</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -5229,7 +5283,7 @@
       </c>
       <c r="B48">
         <f t="shared" si="4"/>
-        <v>0.16666666666666666</v>
+        <v>0.17777777777777778</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -5238,7 +5292,7 @@
       </c>
       <c r="B49">
         <f t="shared" si="4"/>
-        <v>0.16666666666666666</v>
+        <v>0.17777777777777778</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -5247,7 +5301,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="4"/>
-        <v>0.16666666666666666</v>
+        <v>0.17777777777777778</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -5256,7 +5310,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="4"/>
-        <v>0.16666666666666666</v>
+        <v>0.17777777777777778</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -5265,7 +5319,7 @@
       </c>
       <c r="B52">
         <f t="shared" si="4"/>
-        <v>0.16666666666666666</v>
+        <v>0.17777777777777778</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -5274,7 +5328,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="4"/>
-        <v>0.16666666666666666</v>
+        <v>0.17777777777777778</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -5283,7 +5337,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="4"/>
-        <v>0.16666666666666666</v>
+        <v>0.17777777777777778</v>
       </c>
       <c r="C54">
         <v>0.2</v>
@@ -5313,8 +5367,8 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <f>1/10</f>
-        <v>0.1</v>
+        <f>1.2/10</f>
+        <v>0.12</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -5322,8 +5376,8 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <f t="shared" ref="B58:B66" si="5">1/10</f>
-        <v>0.1</v>
+        <f t="shared" ref="B58:B66" si="5">1.2/10</f>
+        <v>0.12</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -5332,7 +5386,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="5"/>
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -5341,7 +5395,7 @@
       </c>
       <c r="B60">
         <f t="shared" si="5"/>
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -5350,7 +5404,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="5"/>
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -5359,7 +5413,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="5"/>
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -5368,7 +5422,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="5"/>
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -5377,7 +5431,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="5"/>
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -5386,7 +5440,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="5"/>
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -5395,7 +5449,7 @@
       </c>
       <c r="B66">
         <f t="shared" si="5"/>
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="C66">
         <v>0.3</v>
@@ -5425,8 +5479,8 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <f>1.5/8</f>
-        <v>0.1875</v>
+        <f>1.7/8</f>
+        <v>0.21249999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -5434,8 +5488,8 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <f t="shared" ref="B70:B76" si="6">1.5/8</f>
-        <v>0.1875</v>
+        <f t="shared" ref="B70:B76" si="6">1.7/8</f>
+        <v>0.21249999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -5444,7 +5498,7 @@
       </c>
       <c r="B71">
         <f t="shared" si="6"/>
-        <v>0.1875</v>
+        <v>0.21249999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -5453,7 +5507,7 @@
       </c>
       <c r="B72">
         <f t="shared" si="6"/>
-        <v>0.1875</v>
+        <v>0.21249999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -5462,7 +5516,7 @@
       </c>
       <c r="B73">
         <f t="shared" si="6"/>
-        <v>0.1875</v>
+        <v>0.21249999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -5471,7 +5525,7 @@
       </c>
       <c r="B74">
         <f t="shared" si="6"/>
-        <v>0.1875</v>
+        <v>0.21249999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -5480,7 +5534,7 @@
       </c>
       <c r="B75">
         <f t="shared" si="6"/>
-        <v>0.1875</v>
+        <v>0.21249999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -5489,7 +5543,7 @@
       </c>
       <c r="B76">
         <f t="shared" si="6"/>
-        <v>0.1875</v>
+        <v>0.21249999999999999</v>
       </c>
       <c r="C76">
         <v>0.2</v>
@@ -5500,7 +5554,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -5508,7 +5562,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="C78">
         <v>0.2</v>
@@ -5519,8 +5573,8 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <f>1/11</f>
-        <v>9.0909090909090912E-2</v>
+        <f>1.2/11</f>
+        <v>0.10909090909090909</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -5528,8 +5582,8 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <f t="shared" ref="B80:B89" si="7">1/11</f>
-        <v>9.0909090909090912E-2</v>
+        <f t="shared" ref="B80:B89" si="7">1.2/11</f>
+        <v>0.10909090909090909</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -5538,7 +5592,7 @@
       </c>
       <c r="B81">
         <f t="shared" si="7"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.10909090909090909</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -5547,7 +5601,7 @@
       </c>
       <c r="B82">
         <f t="shared" si="7"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.10909090909090909</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -5556,7 +5610,7 @@
       </c>
       <c r="B83">
         <f t="shared" si="7"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.10909090909090909</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -5565,7 +5619,7 @@
       </c>
       <c r="B84">
         <f t="shared" si="7"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.10909090909090909</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -5574,7 +5628,7 @@
       </c>
       <c r="B85">
         <f t="shared" si="7"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.10909090909090909</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -5583,7 +5637,7 @@
       </c>
       <c r="B86">
         <f t="shared" si="7"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.10909090909090909</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -5592,7 +5646,7 @@
       </c>
       <c r="B87">
         <f t="shared" si="7"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.10909090909090909</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -5601,7 +5655,7 @@
       </c>
       <c r="B88">
         <f t="shared" si="7"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.10909090909090909</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -5610,7 +5664,7 @@
       </c>
       <c r="B89">
         <f t="shared" si="7"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.10909090909090909</v>
       </c>
       <c r="C89">
         <v>0.4</v>
@@ -5621,7 +5675,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -5629,7 +5683,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -6561,7 +6615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
@@ -7397,7 +7451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
@@ -7610,7 +7664,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:B30" si="2">1/9</f>
+        <f t="shared" ref="B22:B29" si="2">1/9</f>
         <v>0.1111111111111111</v>
       </c>
     </row>

--- a/RapZapSnap/Assets/Chew/script/Excel Related/LyricsData.xlsx
+++ b/RapZapSnap/Assets/Chew/script/Excel Related/LyricsData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="0" windowWidth="16680" windowHeight="12645" tabRatio="611" activeTab="7"/>
+    <workbookView xWindow="12120" yWindow="0" windowWidth="16680" windowHeight="12645" tabRatio="611" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="tokiwa1" sheetId="1" r:id="rId1"/>
@@ -5696,8 +5696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5754,8 +5754,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>8.3333000000000004E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -5814,8 +5813,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:B17" si="1">1/7</f>
-        <v>0.14285714285714285</v>
+        <v>0.14285700000000001</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -5823,7 +5821,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B13:B17" si="1">1/7</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -6615,8 +6613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6655,7 +6653,6 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>

--- a/RapZapSnap/Assets/Chew/script/Excel Related/LyricsData.xlsx
+++ b/RapZapSnap/Assets/Chew/script/Excel Related/LyricsData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoshi\OneDrive\デスクトップ\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{3132258D-4D15-44A8-BF55-DE3F04D04924}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FEA3E40C-2B46-4617-BAF7-00E1F840CF4C}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="0" windowWidth="16680" windowHeight="12645" tabRatio="611" activeTab="6"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="611" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tokiwa1" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,15 @@
     <sheet name="mari2" sheetId="8" r:id="rId8"/>
     <sheet name="mari3" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -51,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -97,7 +111,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -113,7 +127,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -155,7 +169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,9 +202,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,6 +254,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -398,19 +446,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="C92" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -421,7 +469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -429,7 +477,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -437,7 +485,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -445,7 +493,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -453,7 +501,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -464,7 +512,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -473,7 +521,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -482,7 +530,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -494,91 +542,91 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <f>0.4/9</f>
-        <v>4.4444444444444446E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <f>1.3/9</f>
+        <v>0.14444444444444446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" ref="B11:B18" si="0">0.4/9</f>
-        <v>4.4444444444444446E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B11:B18" si="0">1.3/9</f>
+        <v>0.14444444444444446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>4.4444444444444446E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.14444444444444446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>4.4444444444444446E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.14444444444444446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>4.4444444444444446E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.14444444444444446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>4.4444444444444446E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.14444444444444446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>4.4444444444444446E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.14444444444444446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>4.4444444444444446E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.14444444444444446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>4.4444444444444446E-2</v>
+        <v>0.14444444444444446</v>
       </c>
       <c r="C18">
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -586,7 +634,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -594,7 +642,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -602,7 +650,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -610,7 +658,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -621,537 +669,537 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <f>0.5/3</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.6/3</f>
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25:B26" si="1">0.5/3</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B25:B26" si="1">0.6/3</f>
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="C26">
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C27">
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <f>0.2/9</f>
-        <v>2.2222222222222223E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+        <f>1.7/9</f>
+        <v>0.18888888888888888</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29:B35" si="2">0.8/9</f>
-        <v>8.8888888888888892E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+        <f>1.7/9</f>
+        <v>0.18888888888888888</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <f t="shared" si="2"/>
-        <v>8.8888888888888892E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B30:B35" si="2">1.7/9</f>
+        <v>0.18888888888888888</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <f t="shared" si="2"/>
-        <v>8.8888888888888892E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.18888888888888888</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <f t="shared" si="2"/>
-        <v>8.8888888888888892E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.18888888888888888</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <f t="shared" si="2"/>
-        <v>8.8888888888888892E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.18888888888888888</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <f t="shared" si="2"/>
-        <v>8.8888888888888892E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.18888888888888888</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <f t="shared" si="2"/>
-        <v>8.8888888888888892E-2</v>
+        <v>0.18888888888888888</v>
       </c>
       <c r="C35">
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <f>0.5/4</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B36:B39" si="3">1.3/4</f>
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <f>0.5/4</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <f>0.5/4</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+        <f>1.3/4</f>
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <f>0.5/4</f>
-        <v>0.125</v>
+        <f t="shared" si="3"/>
+        <v>0.32500000000000001</v>
       </c>
       <c r="C39">
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <f>0.1/7</f>
-        <v>1.4285714285714287E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.4/7</f>
+        <v>5.7142857142857148E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <f t="shared" ref="B41:B47" si="3">0.1/7</f>
-        <v>1.4285714285714287E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B41:B47" si="4">0.4/7</f>
+        <v>5.7142857142857148E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <f t="shared" si="3"/>
-        <v>1.4285714285714287E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>5.7142857142857148E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <f t="shared" si="3"/>
-        <v>1.4285714285714287E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>5.7142857142857148E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <f t="shared" si="3"/>
-        <v>1.4285714285714287E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>5.7142857142857148E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <f t="shared" si="3"/>
-        <v>1.4285714285714287E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>5.7142857142857148E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <f t="shared" si="3"/>
-        <v>1.4285714285714287E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>5.7142857142857148E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <f t="shared" si="3"/>
-        <v>1.4285714285714287E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.7142857142857148E-2</v>
       </c>
       <c r="C47">
         <v>0.2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <f>0.5/3</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.7/3</f>
+        <v>0.23333333333333331</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <f t="shared" ref="B49:B50" si="4">0.5/3</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B49:B50" si="5">0.7/3</f>
+        <v>0.23333333333333331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <f t="shared" si="4"/>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="5"/>
+        <v>0.23333333333333331</v>
       </c>
       <c r="C50">
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <f>0.3/10</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+        <f>11/10</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <f t="shared" ref="B52:B61" si="5">0.3/10</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B52:B61" si="6">11/10</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <f t="shared" si="5"/>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <f t="shared" si="5"/>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <f t="shared" si="5"/>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <f t="shared" si="5"/>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <f t="shared" si="5"/>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <f t="shared" si="5"/>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <f t="shared" si="5"/>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <f t="shared" si="5"/>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <f t="shared" si="5"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C61">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <f>0.3/5</f>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.4/5</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <f t="shared" ref="B63:B66" si="6">0.3/5</f>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B63:B66" si="7">0.4/5</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <f t="shared" si="6"/>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="7"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <f t="shared" si="6"/>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="7"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <f t="shared" si="6"/>
-        <v>0.06</v>
+        <f t="shared" si="7"/>
+        <v>0.08</v>
       </c>
       <c r="C66">
         <v>0.1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <f>0.1/9</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.02/9</f>
+        <v>2.2222222222222222E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <f>0.1/9</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B68:B76" si="8">0.02/9</f>
+        <v>2.2222222222222222E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <f t="shared" ref="B69:B76" si="7">0.1/9</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="8"/>
+        <v>2.2222222222222222E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <f t="shared" si="7"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="8"/>
+        <v>2.2222222222222222E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <f t="shared" si="7"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="8"/>
+        <v>2.2222222222222222E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
-        <f t="shared" si="7"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="8"/>
+        <v>2.2222222222222222E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
-        <f t="shared" si="7"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="8"/>
+        <v>2.2222222222222222E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <f t="shared" si="7"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="8"/>
+        <v>2.2222222222222222E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <f t="shared" si="7"/>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="8"/>
+        <v>2.2222222222222222E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <f t="shared" si="7"/>
-        <v>1.1111111111111112E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.2222222222222222E-3</v>
       </c>
       <c r="C76">
         <v>0.5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="C79">
         <v>0.6</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1160,115 +1208,115 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
-        <f t="shared" ref="B81:B89" si="8">0.1/2</f>
+        <f t="shared" ref="B81:B89" si="9">0.1/2</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="C89">
         <v>0.1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
-        <f>5/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B90:B91" si="10">2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
-        <f>5/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="10"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
-        <f>5/3</f>
-        <v>1.6666666666666667</v>
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
   </sheetData>
@@ -1278,16 +1326,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1298,7 +1346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1306,7 +1354,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1314,7 +1362,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1322,7 +1370,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1330,7 +1378,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1341,7 +1389,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1349,7 +1397,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1357,7 +1405,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1368,7 +1416,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1377,7 +1425,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1386,7 +1434,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1395,7 +1443,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1404,7 +1452,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1413,7 +1461,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1422,7 +1470,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1431,7 +1479,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1440,7 +1488,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1449,7 +1497,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1458,7 +1506,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1467,7 +1515,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1476,7 +1524,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1488,7 +1536,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1497,7 +1545,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1506,7 +1554,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1518,7 +1566,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1527,7 +1575,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1536,7 +1584,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1545,7 +1593,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1554,7 +1602,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1563,7 +1611,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1572,7 +1620,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1581,7 +1629,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1593,7 +1641,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1601,7 +1649,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1612,7 +1660,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1621,7 +1669,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1630,7 +1678,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1639,7 +1687,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1648,7 +1696,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1657,7 +1705,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1666,7 +1714,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1675,7 +1723,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1684,7 +1732,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1693,7 +1741,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1702,7 +1750,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1714,7 +1762,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1722,7 +1770,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1733,74 +1781,74 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C56">
         <v>0.4</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1809,7 +1857,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1818,7 +1866,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1827,7 +1875,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1839,90 +1887,90 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="C70">
         <v>0.3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1931,7 +1979,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1940,7 +1988,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1949,7 +1997,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1961,163 +2009,163 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <f>1.6/17</f>
-        <v>9.4117647058823528E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B75:B90" si="3">1.2/17</f>
+        <v>7.0588235294117646E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <f t="shared" ref="B76:B91" si="3">1.6/17</f>
-        <v>9.4117647058823528E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>7.0588235294117646E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
         <f t="shared" si="3"/>
-        <v>9.4117647058823528E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+        <v>7.0588235294117646E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
         <f t="shared" si="3"/>
-        <v>9.4117647058823528E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+        <v>7.0588235294117646E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
         <f t="shared" si="3"/>
-        <v>9.4117647058823528E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+        <v>7.0588235294117646E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
         <f t="shared" si="3"/>
-        <v>9.4117647058823528E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+        <v>7.0588235294117646E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
         <f t="shared" si="3"/>
-        <v>9.4117647058823528E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+        <v>7.0588235294117646E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
         <f t="shared" si="3"/>
-        <v>9.4117647058823528E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+        <v>7.0588235294117646E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
         <f t="shared" si="3"/>
-        <v>9.4117647058823528E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+        <v>7.0588235294117646E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
         <f t="shared" si="3"/>
-        <v>9.4117647058823528E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+        <v>7.0588235294117646E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
         <f t="shared" si="3"/>
-        <v>9.4117647058823528E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+        <v>7.0588235294117646E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
         <f t="shared" si="3"/>
-        <v>9.4117647058823528E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+        <v>7.0588235294117646E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
         <f t="shared" si="3"/>
-        <v>9.4117647058823528E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+        <v>7.0588235294117646E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
         <f t="shared" si="3"/>
-        <v>9.4117647058823528E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+        <v>7.0588235294117646E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
         <f t="shared" si="3"/>
-        <v>9.4117647058823528E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+        <v>7.0588235294117646E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
         <f t="shared" si="3"/>
-        <v>9.4117647058823528E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+        <v>7.0588235294117646E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
-        <f t="shared" si="3"/>
-        <v>9.4117647058823528E-2</v>
+        <f>1.2/17</f>
+        <v>7.0588235294117646E-2</v>
       </c>
       <c r="C91">
         <v>0.6</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2125,7 +2173,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2136,200 +2184,201 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
-        <f>1.2/13</f>
-        <v>9.2307692307692299E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B94:B105" si="4">1.1/13</f>
+        <v>8.461538461538462E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
-        <f t="shared" ref="B95:B106" si="4">1.2/13</f>
-        <v>9.2307692307692299E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>8.461538461538462E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
         <f t="shared" si="4"/>
-        <v>9.2307692307692299E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8.461538461538462E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
         <f t="shared" si="4"/>
-        <v>9.2307692307692299E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8.461538461538462E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
         <f t="shared" si="4"/>
-        <v>9.2307692307692299E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8.461538461538462E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
         <f t="shared" si="4"/>
-        <v>9.2307692307692299E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8.461538461538462E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
         <f t="shared" si="4"/>
-        <v>9.2307692307692299E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8.461538461538462E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
         <f t="shared" si="4"/>
-        <v>9.2307692307692299E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8.461538461538462E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102">
         <f t="shared" si="4"/>
-        <v>9.2307692307692299E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8.461538461538462E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103">
         <f t="shared" si="4"/>
-        <v>9.2307692307692299E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8.461538461538462E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104">
         <f t="shared" si="4"/>
-        <v>9.2307692307692299E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8.461538461538462E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105">
         <f t="shared" si="4"/>
-        <v>9.2307692307692299E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8.461538461538462E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106">
-        <f t="shared" si="4"/>
-        <v>9.2307692307692299E-2</v>
+        <f>1.1/13</f>
+        <v>8.461538461538462E-2</v>
       </c>
       <c r="C106">
         <v>0.4</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107">
-        <f>1/6</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B107:B111" si="5">0.8/6</f>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108">
-        <f t="shared" ref="B108:B112" si="5">1/6</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="5"/>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109">
         <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110">
         <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111">
         <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112">
-        <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
+        <f>0.8/6</f>
+        <v>0.13333333333333333</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B100" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2340,7 +2389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2349,7 +2398,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2358,7 +2407,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2367,7 +2416,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2376,7 +2425,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2385,7 +2434,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2394,7 +2443,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2403,7 +2452,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2412,7 +2461,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2421,7 +2470,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2430,7 +2479,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2439,7 +2488,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2448,7 +2497,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2460,7 +2509,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2469,7 +2518,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2478,7 +2527,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2490,7 +2539,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2499,7 +2548,7 @@
         <v>0.18571428571428572</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2508,7 +2557,7 @@
         <v>0.18571428571428572</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2517,7 +2566,7 @@
         <v>0.18571428571428572</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2526,7 +2575,7 @@
         <v>0.18571428571428572</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2535,7 +2584,7 @@
         <v>0.18571428571428572</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2544,7 +2593,7 @@
         <v>0.18571428571428572</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2553,7 +2602,7 @@
         <v>0.18571428571428572</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2565,7 +2614,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2573,7 +2622,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2584,531 +2633,531 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="C37">
         <v>0.3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="C39">
         <v>0.3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <f>1/9</f>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.8/9</f>
+        <v>8.8888888888888892E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <f t="shared" ref="B41:B48" si="2">1/9</f>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B41:B48" si="2">0.8/9</f>
+        <v>8.8888888888888892E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8.8888888888888892E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8.8888888888888892E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
         <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8.8888888888888892E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8.8888888888888892E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8.8888888888888892E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8.8888888888888892E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="C48">
         <v>0.4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <f>0.5/3</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.4/3</f>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <f>0.5/3</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B50:B51" si="3">0.4/3</f>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <f>0.5/3</f>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="3"/>
+        <v>0.13333333333333333</v>
       </c>
       <c r="C51">
         <v>0.7</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="C59">
         <v>0.4</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="C61">
         <v>0.3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="C71">
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="C73">
         <v>0.2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <f>1.6/13</f>
-        <v>0.12307692307692308</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+        <f>1.4/13</f>
+        <v>0.10769230769230768</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <f t="shared" ref="B75:B86" si="3">1.6/13</f>
-        <v>0.12307692307692308</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B75:B86" si="4">1.4/13</f>
+        <v>0.10769230769230768</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <f t="shared" si="3"/>
-        <v>0.12307692307692308</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>0.10769230769230768</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <f t="shared" si="3"/>
-        <v>0.12307692307692308</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>0.10769230769230768</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <f t="shared" si="3"/>
-        <v>0.12307692307692308</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>0.10769230769230768</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <f t="shared" si="3"/>
-        <v>0.12307692307692308</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>0.10769230769230768</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
-        <f t="shared" si="3"/>
-        <v>0.12307692307692308</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>0.10769230769230768</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
-        <f t="shared" si="3"/>
-        <v>0.12307692307692308</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>0.10769230769230768</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
-        <f t="shared" si="3"/>
-        <v>0.12307692307692308</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>0.10769230769230768</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <f t="shared" si="3"/>
-        <v>0.12307692307692308</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>0.10769230769230768</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
-        <f t="shared" si="3"/>
-        <v>0.12307692307692308</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>0.10769230769230768</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
-        <f t="shared" si="3"/>
-        <v>0.12307692307692308</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>0.10769230769230768</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <f t="shared" si="3"/>
-        <v>0.12307692307692308</v>
+        <f t="shared" si="4"/>
+        <v>0.10769230769230768</v>
       </c>
       <c r="C86">
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3116,7 +3165,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3124,7 +3173,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3132,7 +3181,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3140,7 +3189,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3148,7 +3197,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3156,7 +3205,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3164,7 +3213,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3172,7 +3221,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3180,7 +3229,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3188,7 +3237,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3199,7 +3248,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3207,7 +3256,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3218,24 +3267,24 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView topLeftCell="A68" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3246,7 +3295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3255,7 +3304,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3264,7 +3313,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3273,7 +3322,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3282,7 +3331,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3291,7 +3340,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3300,7 +3349,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3309,7 +3358,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3318,7 +3367,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3330,7 +3379,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3338,7 +3387,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3349,7 +3398,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3357,7 +3406,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3365,7 +3414,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3373,7 +3422,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3381,7 +3430,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3389,7 +3438,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3397,7 +3446,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3405,7 +3454,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3413,7 +3462,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3421,7 +3470,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3432,7 +3481,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3440,7 +3489,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3451,7 +3500,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3459,7 +3508,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3467,7 +3516,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3475,7 +3524,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3483,7 +3532,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3494,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3502,7 +3551,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3513,7 +3562,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3522,7 +3571,7 @@
         <v>7.2727272727272738E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3531,7 +3580,7 @@
         <v>7.2727272727272738E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3540,7 +3589,7 @@
         <v>7.2727272727272738E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3549,7 +3598,7 @@
         <v>7.2727272727272738E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3558,7 +3607,7 @@
         <v>7.2727272727272738E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3567,7 +3616,7 @@
         <v>7.2727272727272738E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3576,7 +3625,7 @@
         <v>7.2727272727272738E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3585,7 +3634,7 @@
         <v>7.2727272727272738E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3594,7 +3643,7 @@
         <v>7.2727272727272738E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3603,7 +3652,7 @@
         <v>7.2727272727272738E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3615,7 +3664,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3623,7 +3672,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3634,7 +3683,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3642,7 +3691,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3650,7 +3699,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3658,7 +3707,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3666,7 +3715,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3674,7 +3723,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3682,7 +3731,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3690,7 +3739,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3698,7 +3747,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3706,7 +3755,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3717,7 +3766,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3725,7 +3774,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3736,7 +3785,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3745,7 +3794,7 @@
         <v>0.14444444444444446</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3754,7 +3803,7 @@
         <v>0.14444444444444446</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3763,7 +3812,7 @@
         <v>0.14444444444444446</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3772,7 +3821,7 @@
         <v>0.14444444444444446</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3781,7 +3830,7 @@
         <v>0.14444444444444446</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3790,7 +3839,7 @@
         <v>0.14444444444444446</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3799,7 +3848,7 @@
         <v>0.14444444444444446</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3808,7 +3857,7 @@
         <v>0.14444444444444446</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3820,7 +3869,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3828,7 +3877,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3839,7 +3888,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3848,7 +3897,7 @@
         <v>0.1142857142857143</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3857,7 +3906,7 @@
         <v>0.1142857142857143</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3866,7 +3915,7 @@
         <v>0.1142857142857143</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3875,7 +3924,7 @@
         <v>0.1142857142857143</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3884,7 +3933,7 @@
         <v>0.1142857142857143</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3893,7 +3942,7 @@
         <v>0.1142857142857143</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3905,7 +3954,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3914,7 +3963,7 @@
         <v>0.1142857142857143</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3923,7 +3972,7 @@
         <v>0.1142857142857143</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3935,7 +3984,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3944,7 +3993,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3953,7 +4002,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3962,7 +4011,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3971,7 +4020,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3980,7 +4029,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3989,7 +4038,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3998,7 +4047,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4007,7 +4056,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4019,7 +4068,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4027,7 +4076,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4042,16 +4091,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4062,7 +4111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4071,7 +4120,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4080,7 +4129,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4089,7 +4138,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4098,7 +4147,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4107,7 +4156,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4116,7 +4165,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4128,7 +4177,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4137,7 +4186,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4146,7 +4195,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4158,7 +4207,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4167,7 +4216,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4176,7 +4225,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4188,7 +4237,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4197,7 +4246,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4206,7 +4255,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4215,7 +4264,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4227,7 +4276,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4236,7 +4285,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4244,7 +4293,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4252,7 +4301,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4260,7 +4309,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4271,7 +4320,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4280,7 +4329,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4289,7 +4338,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4301,7 +4350,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4309,7 +4358,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4317,7 +4366,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4325,7 +4374,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4333,7 +4382,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4341,7 +4390,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4349,7 +4398,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4357,7 +4406,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4365,7 +4414,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4373,7 +4422,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4384,7 +4433,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4393,7 +4442,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4402,7 +4451,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4414,7 +4463,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4423,7 +4472,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4432,7 +4481,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4441,7 +4490,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4450,7 +4499,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4459,7 +4508,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4468,7 +4517,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4477,7 +4526,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4486,7 +4535,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4498,7 +4547,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4509,7 +4558,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4518,7 +4567,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4527,7 +4576,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4536,7 +4585,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4545,7 +4594,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4554,7 +4603,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4563,7 +4612,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4572,7 +4621,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4584,7 +4633,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4592,7 +4641,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4603,7 +4652,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4612,7 +4661,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4621,7 +4670,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4630,7 +4679,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4639,7 +4688,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4648,7 +4697,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4657,7 +4706,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4666,7 +4715,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4678,7 +4727,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4686,7 +4735,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4697,7 +4746,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4706,7 +4755,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4715,7 +4764,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4724,7 +4773,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4733,7 +4782,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4742,7 +4791,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4751,7 +4800,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4760,7 +4809,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4769,7 +4818,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4778,7 +4827,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4787,7 +4836,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4799,7 +4848,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4807,7 +4856,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4822,16 +4871,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4842,7 +4891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4851,7 +4900,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4860,7 +4909,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4869,7 +4918,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4878,7 +4927,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4887,7 +4936,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4896,7 +4945,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4908,7 +4957,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4917,7 +4966,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4926,7 +4975,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4935,7 +4984,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4947,7 +4996,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4956,7 +5005,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4965,7 +5014,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4977,7 +5026,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4986,7 +5035,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4995,7 +5044,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5007,7 +5056,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5016,7 +5065,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5025,7 +5074,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5034,7 +5083,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5043,7 +5092,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5052,7 +5101,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5061,7 +5110,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5070,7 +5119,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5079,7 +5128,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5088,7 +5137,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5100,7 +5149,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5109,7 +5158,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5118,7 +5167,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5130,7 +5179,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5139,7 +5188,7 @@
         <v>0.16363636363636364</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5148,7 +5197,7 @@
         <v>0.16363636363636364</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5157,7 +5206,7 @@
         <v>0.16363636363636364</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5166,7 +5215,7 @@
         <v>0.16363636363636364</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5175,7 +5224,7 @@
         <v>0.16363636363636364</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5184,7 +5233,7 @@
         <v>0.16363636363636364</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5193,7 +5242,7 @@
         <v>0.16363636363636364</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5202,7 +5251,7 @@
         <v>0.16363636363636364</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5211,7 +5260,7 @@
         <v>0.16363636363636364</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5220,7 +5269,7 @@
         <v>0.16363636363636364</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5232,7 +5281,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5240,7 +5289,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5248,7 +5297,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5259,7 +5308,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5268,7 +5317,7 @@
         <v>0.17777777777777778</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5277,7 +5326,7 @@
         <v>0.17777777777777778</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5286,7 +5335,7 @@
         <v>0.17777777777777778</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5295,7 +5344,7 @@
         <v>0.17777777777777778</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5304,7 +5353,7 @@
         <v>0.17777777777777778</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5313,7 +5362,7 @@
         <v>0.17777777777777778</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5322,7 +5371,7 @@
         <v>0.17777777777777778</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5331,7 +5380,7 @@
         <v>0.17777777777777778</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5343,7 +5392,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5351,7 +5400,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5362,7 +5411,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5371,7 +5420,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5380,7 +5429,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5389,7 +5438,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5398,7 +5447,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5407,7 +5456,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5416,7 +5465,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5425,7 +5474,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5434,7 +5483,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5443,7 +5492,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5455,7 +5504,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5463,7 +5512,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5474,7 +5523,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5483,7 +5532,7 @@
         <v>0.21249999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5492,7 +5541,7 @@
         <v>0.21249999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5501,7 +5550,7 @@
         <v>0.21249999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5510,7 +5559,7 @@
         <v>0.21249999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5519,7 +5568,7 @@
         <v>0.21249999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5528,7 +5577,7 @@
         <v>0.21249999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5537,7 +5586,7 @@
         <v>0.21249999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5549,7 +5598,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5557,7 +5606,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5568,7 +5617,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5577,7 +5626,7 @@
         <v>0.10909090909090909</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5586,7 +5635,7 @@
         <v>0.10909090909090909</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5595,7 +5644,7 @@
         <v>0.10909090909090909</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5604,7 +5653,7 @@
         <v>0.10909090909090909</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5613,7 +5662,7 @@
         <v>0.10909090909090909</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5622,7 +5671,7 @@
         <v>0.10909090909090909</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5631,7 +5680,7 @@
         <v>0.10909090909090909</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5640,7 +5689,7 @@
         <v>0.10909090909090909</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5649,7 +5698,7 @@
         <v>0.10909090909090909</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5658,7 +5707,7 @@
         <v>0.10909090909090909</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5670,7 +5719,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5678,7 +5727,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5693,16 +5742,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5713,299 +5762,304 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <f>0.5/6</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B7" si="0">0.5/6</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B3:B7" si="0">1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8.3333000000000004E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C7">
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.67/3</f>
+        <v>0.22333333333333336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B9:B10" si="1">0.67/3</f>
+        <v>0.22333333333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="1"/>
+        <v>0.22333333333333336</v>
       </c>
       <c r="C10">
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.5/4</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.14285700000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B12:B14" si="2">0.5/4</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:B17" si="1">1/7</f>
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.3/3</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B16:B17" si="3">0.3/3</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <f t="shared" si="3"/>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="C17">
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <f>0.5/3</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.47/3</f>
+        <v>0.15666666666666665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <f>0.5/3</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B19:B20" si="4">0.47/3</f>
+        <v>0.15666666666666665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <f>0.5/3</f>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="4"/>
+        <v>0.15666666666666665</v>
       </c>
       <c r="C20">
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <f>1/9</f>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.7/6</f>
+        <v>0.11666666666666665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:B29" si="2">1/9</f>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B22:B26" si="5">0.7/6</f>
+        <v>0.11666666666666665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="5"/>
+        <v>0.11666666666666665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="5"/>
+        <v>0.11666666666666665</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="5"/>
+        <v>0.11666666666666665</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="5"/>
+        <v>0.11666666666666665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.4/3</f>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B28:B29" si="6">0.4/3</f>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="6"/>
+        <v>0.13333333333333333</v>
       </c>
       <c r="C29">
         <v>0.3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.67/3</f>
+        <v>0.22333333333333336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B31:B32" si="7">0.67/3</f>
+        <v>0.22333333333333336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.1</v>
+        <f t="shared" si="7"/>
+        <v>0.22333333333333336</v>
       </c>
       <c r="C32">
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6014,73 +6068,73 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <f t="shared" ref="B34:B40" si="3">1/8</f>
+        <f t="shared" ref="B34:B37" si="8">1/8</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.6/8</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B39:B40" si="9">0.6/8</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
+        <f t="shared" si="9"/>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C40">
         <v>0.6</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6089,537 +6143,543 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <f>0.5/3</f>
+        <f t="shared" ref="B42:B43" si="10">0.5/3</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <f>0.5/3</f>
+        <f t="shared" si="10"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="C43">
         <v>0.6</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <f>1/8</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.9/7</f>
+        <v>0.12857142857142859</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <f t="shared" ref="B45:B51" si="4">1/8</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B45:B49" si="11">0.9/7</f>
+        <v>0.12857142857142859</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0.12857142857142859</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0.12857142857142859</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0.12857142857142859</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0.12857142857142859</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.35/4</f>
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
+        <f t="shared" ref="B51:B54" si="12">0.35/4</f>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="C51">
         <v>0.4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="12"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="12"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.1</v>
+        <f t="shared" si="12"/>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="C54">
         <v>0.2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <f>1/12</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+        <f>1/10</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <f t="shared" ref="B56:B66" si="5">1/12</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B56:B59" si="13">1/10</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <f t="shared" si="5"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <f t="shared" si="5"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <f t="shared" si="5"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <f t="shared" si="5"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B60:B61" si="14">0.8/10</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <f t="shared" si="5"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="14"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <f t="shared" si="5"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.8/10</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <f t="shared" si="5"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.8/10</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <f t="shared" si="5"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.3/5</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <f t="shared" si="5"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.3/5</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <f t="shared" si="5"/>
-        <v>8.3333333333333329E-2</v>
+        <f t="shared" ref="B66:B69" si="15">0.3/5</f>
+        <v>0.06</v>
       </c>
       <c r="C66">
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <f>0.5/3</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <f>0.5/3</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="15"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <f>0.5/3</f>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="15"/>
+        <v>0.06</v>
       </c>
       <c r="C69">
         <v>0.3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <f>1.5/10</f>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.9/8</f>
+        <v>0.1125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <f t="shared" ref="B71:B79" si="6">1.5/10</f>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B71:B77" si="16">0.9/8</f>
+        <v>0.1125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
-        <f t="shared" si="6"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="16"/>
+        <v>0.1125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
-        <f t="shared" si="6"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="16"/>
+        <v>0.1125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <f t="shared" si="6"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="16"/>
+        <v>0.1125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <f t="shared" si="6"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="16"/>
+        <v>0.1125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <f t="shared" si="6"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="16"/>
+        <v>0.1125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <f t="shared" si="6"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="16"/>
+        <v>0.1125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <f t="shared" si="6"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.5/5</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <f t="shared" si="6"/>
-        <v>0.15</v>
+        <f t="shared" ref="B79:B82" si="17">0.5/5</f>
+        <v>0.1</v>
       </c>
       <c r="C79">
         <v>0.2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
-        <f>0.1/3</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
-        <f>0.1/3</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
-        <f>0.1/3</f>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="17"/>
+        <v>0.1</v>
       </c>
       <c r="C82">
         <v>0.2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <f>1/12</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.9/10</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
-        <f t="shared" ref="B84:B94" si="7">1/12</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.9/10</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
-        <f t="shared" si="7"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B85:B92" si="18">0.9/10</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <f t="shared" si="7"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="18"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
-        <f t="shared" si="7"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="18"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
-        <f t="shared" si="7"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="18"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
-        <f t="shared" si="7"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="18"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
-        <f t="shared" si="7"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="18"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
-        <f t="shared" si="7"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="18"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
-        <f t="shared" si="7"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="18"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
-        <f t="shared" si="7"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.3/4</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
-        <f t="shared" si="7"/>
-        <v>8.3333333333333329E-2</v>
+        <f t="shared" ref="B94:B96" si="19">0.3/4</f>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C94">
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="19"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.5</v>
+        <f t="shared" si="19"/>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6630,606 +6690,615 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <f>1/10</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <f>1.45/10</f>
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B10" si="0">1/10</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B3:B9" si="0">1.45/10</f>
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="0"/>
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <f>1/10</f>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="C11">
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="C13">
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <f>1/9</f>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+        <f>1.2/8</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" ref="B15:B21" si="1">1/9</f>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B15:B19" si="1">1.2/8</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <f>1/9</f>
-        <v>0.1111111111111111</v>
+        <f>0.3/4</f>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C22">
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <f>0.5/3</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B23:B25" si="2">0.3/4</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:B25" si="2">0.5/3</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="2"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C25">
         <v>0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <f>1/9</f>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+        <f>1.2/7</f>
+        <v>0.17142857142857143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27:B34" si="3">1/9</f>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B27:B30" si="3">1.2/7</f>
+        <v>0.17142857142857143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <f t="shared" si="3"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.17142857142857143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <f t="shared" si="3"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.17142857142857143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <f t="shared" si="3"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.17142857142857143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <f t="shared" si="3"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B31:B35" si="4">0.3/4</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <f>1/9</f>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <f t="shared" si="3"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <f t="shared" si="3"/>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="4"/>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C34">
         <v>0.6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.05</v>
+        <f>0.3/4</f>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C36">
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <f>1/8</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <f t="shared" ref="B38:B44" si="4">1/8</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B38:B40" si="5">1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="5"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="5"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B41:B42" si="6">0.3/4</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.3/4</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
+        <f t="shared" ref="B44:B46" si="7">0.3/4</f>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C44">
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="7"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.25</v>
+        <f t="shared" si="7"/>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C46">
         <v>0.6</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <f>0.5/6</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.9/6</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <f t="shared" ref="B48:B52" si="5">0.5/6</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B48:B50" si="8">0.9/6</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <f t="shared" si="5"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="8"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <f t="shared" si="5"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="8"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <f t="shared" si="5"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.7/6</f>
+        <v>0.11666666666666665</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <f t="shared" si="5"/>
-        <v>8.3333333333333329E-2</v>
+        <f>0.7/6</f>
+        <v>0.11666666666666665</v>
       </c>
       <c r="C52">
         <v>0.6</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.3/2</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.25</v>
+        <f>0.3/2</f>
+        <v>0.15</v>
       </c>
       <c r="C54">
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <f>0.5/6</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.3/4</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <f t="shared" ref="B56:B60" si="6">0.5/6</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B56:B58" si="9">0.3/4</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <f t="shared" si="6"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <f t="shared" si="6"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <f t="shared" si="6"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.9/7</f>
+        <v>0.12857142857142859</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <f t="shared" si="6"/>
-        <v>8.3333333333333329E-2</v>
+        <f t="shared" ref="B60:B65" si="10">0.9/7</f>
+        <v>0.12857142857142859</v>
       </c>
       <c r="C60">
         <v>0.6</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <f>0.1</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="10"/>
+        <v>0.12857142857142859</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="10"/>
+        <v>0.12857142857142859</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="10"/>
+        <v>0.12857142857142859</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="10"/>
+        <v>0.12857142857142859</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.1</v>
+        <f t="shared" si="10"/>
+        <v>0.12857142857142859</v>
       </c>
       <c r="C65">
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7238,203 +7307,216 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B72" si="7">1/7</f>
+        <f t="shared" ref="B67:B70" si="11">1/7</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <f t="shared" si="7"/>
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
-        <f t="shared" si="7"/>
-        <v>0.14285714285714285</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C72">
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.15</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C74">
         <v>0.1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.55/5</f>
+        <v>0.11000000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B76:B79" si="12">0.55/5</f>
+        <v>0.11000000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="12"/>
+        <v>0.11000000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="12"/>
+        <v>0.11000000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="12"/>
+        <v>0.11000000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.7/8</f>
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B81:B88" si="13">0.7/8</f>
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.1</v>
+        <f t="shared" si="13"/>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="C84">
         <v>0.4</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.2</v>
+        <f>0.7/8</f>
+        <v>8.7499999999999994E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7445,16 +7527,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+      <selection sqref="A1:C82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7465,752 +7547,758 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <f>1/8</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <f>1.23/8</f>
+        <v>0.15375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B9" si="0">1/8</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B3:B7" si="0">1.23/8</f>
+        <v>0.15375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.15375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.15375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.15375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.15375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B8:B9" si="1">0.3/3</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
+        <f t="shared" si="1"/>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="C9">
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <f>0.5/3</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.3/3</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <f>0.5/3</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B11:B12" si="2">0.3/3</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <f>0.5/3</f>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="2"/>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="C12">
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <f>0.5/7</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+        <f>1.1/6</f>
+        <v>0.18333333333333335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14:B19" si="1">0.5/7</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B14:B16" si="3">1.1/6</f>
+        <v>0.18333333333333335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" si="1"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>0.18333333333333335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" si="1"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>0.18333333333333335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" si="1"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.8/6</f>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" si="1"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <f t="shared" si="1"/>
-        <v>7.1428571428571425E-2</v>
+        <v>0.01</v>
       </c>
       <c r="C19">
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="C20">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <f>1/9</f>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:B29" si="2">1/9</f>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B22:B26" si="4">0.4/9</f>
+        <v>4.4444444444444446E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>4.4444444444444446E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>4.4444444444444446E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>4.4444444444444446E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>4.4444444444444446E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B27:B28" si="5">0.3/9</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="5"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
+        <f>0.3/9</f>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="C29">
         <v>0.6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C31">
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <f>1/9</f>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+        <f>1.2/9</f>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:B39" si="3">1/9</f>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B33:B36" si="6">1.2/9</f>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <f t="shared" si="3"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <f t="shared" si="3"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <f t="shared" si="3"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <f t="shared" si="3"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.9/9</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <f t="shared" si="3"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B38:B40" si="7">0.9/9</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <f t="shared" si="3"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <f>1/9</f>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="7"/>
+        <v>0.1</v>
       </c>
       <c r="C40">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <f>0.5/3</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.3/3</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <f>0.5/3</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B42:B43" si="8">0.3/3</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <f>0.5/3</f>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="8"/>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="C43">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <f>1/8</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+        <f>1.4/8</f>
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <f t="shared" ref="B45:B51" si="4">1/8</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B45:B48" si="9">1.4/8</f>
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+        <f>0.7/8</f>
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B50:B51" si="10">0.7/8</f>
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
+        <f t="shared" si="10"/>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="C51">
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C53">
         <v>0.3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <f>1/8</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+        <f>1.4/8</f>
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <f t="shared" ref="B55:B61" si="5">1/8</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B55:B58" si="11">1.4/8</f>
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <f t="shared" si="5"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <f t="shared" si="5"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <f t="shared" si="5"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="11"/>
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <f t="shared" si="5"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B59:B63" si="12">0.9/8</f>
+        <v>0.1125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <f t="shared" si="5"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="12"/>
+        <v>0.1125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <f t="shared" si="5"/>
-        <v>0.125</v>
+        <f t="shared" si="12"/>
+        <v>0.1125</v>
       </c>
       <c r="C61">
         <v>0.4</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="12"/>
+        <v>0.1125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.25</v>
+        <f t="shared" si="12"/>
+        <v>0.1125</v>
       </c>
       <c r="C63">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+        <f>1.2/8</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B65:B67" si="13">1.2/8</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.2</v>
+        <f t="shared" ref="B68:B70" si="14">1/8</f>
+        <v>0.125</v>
       </c>
       <c r="C68">
         <v>0.4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="14"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.05</v>
+        <f t="shared" si="14"/>
+        <v>0.125</v>
       </c>
       <c r="C70">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="C80">
         <v>0.4</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
